--- a/input/OM_EM_Scenarios_v3.xlsx
+++ b/input/OM_EM_Scenarios_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Fleet_Selex_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33C3243-A923-0046-99F6-975FF611D4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CA1BE-FE6D-F344-84FB-14CDCA162470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="38360" windowHeight="20840" activeTab="2" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
   </bookViews>
   <sheets>
     <sheet name="OM" sheetId="1" r:id="rId1"/>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458753E-37AB-3F45-AB3E-5A0862A1384B}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1003,22 +1003,22 @@
         <v>0.76670000000000005</v>
       </c>
       <c r="K2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M2">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N2">
         <v>0.2</v>
       </c>
       <c r="O2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
         <v>10</v>
@@ -1086,22 +1086,22 @@
         <v>0.76670000000000005</v>
       </c>
       <c r="K3">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L3">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>0.2</v>
       </c>
       <c r="O3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
         <v>10</v>
@@ -1169,22 +1169,22 @@
         <v>0.76670000000000005</v>
       </c>
       <c r="K4">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L4">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M4">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N4">
         <v>0.2</v>
       </c>
       <c r="O4">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P4">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
         <v>10</v>
@@ -1252,22 +1252,22 @@
         <v>0.76670000000000005</v>
       </c>
       <c r="K5">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L5">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M5">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N5">
         <v>0.2</v>
       </c>
       <c r="O5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P5">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="s">
         <v>10</v>
@@ -1335,22 +1335,22 @@
         <v>0.76670000000000005</v>
       </c>
       <c r="K6">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N6">
         <v>0.2</v>
       </c>
       <c r="O6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P6">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
         <v>10</v>
@@ -1418,22 +1418,22 @@
         <v>0.76670000000000005</v>
       </c>
       <c r="K7">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="L7">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>0.2</v>
       </c>
       <c r="O7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="P7">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
         <v>10</v>
@@ -2165,7 +2165,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B613047-F522-7940-BBE5-BABC26E5D272}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/input/OM_EM_Scenarios_v3.xlsx
+++ b/input/OM_EM_Scenarios_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Fleet_Selex_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400CA1BE-FE6D-F344-84FB-14CDCA162470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44518D-8C96-D44F-B895-1E1AAB50E0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="31940" windowHeight="20080" activeTab="3" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
   </bookViews>
   <sheets>
     <sheet name="OM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="176">
   <si>
     <t>Fl_1_Ftype</t>
   </si>
@@ -484,6 +484,93 @@
   </si>
   <si>
     <t>Slow_LG_Y_Low</t>
+  </si>
+  <si>
+    <t>Semi-Parametric</t>
+  </si>
+  <si>
+    <t>Term_1Fl_L_SP_1.0</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_L_SP_1.0</t>
+  </si>
+  <si>
+    <t>Int_1Fl_L_SP_1.0</t>
+  </si>
+  <si>
+    <t>Term_1Fl_L_SP_0.25</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_L_SP_0.25</t>
+  </si>
+  <si>
+    <t>Int_1Fl_L_SP_0.25</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.25</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.25</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.25</t>
+  </si>
+  <si>
+    <t>Term_1Fl_L_SP_0.5</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_L_SP_0.5</t>
+  </si>
+  <si>
+    <t>Int_1Fl_L_SP_0.5</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.5</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.5</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.5</t>
+  </si>
+  <si>
+    <t>Term_1Fl_L_SP_0.75</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_L_SP_0.75</t>
+  </si>
+  <si>
+    <t>Int_1Fl_L_SP_0.75</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.75</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.75</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.75</t>
+  </si>
+  <si>
+    <t>share_ages</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.15</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.15</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.15</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.05</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.05</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.05</t>
   </si>
 </sst>
 </file>
@@ -858,7 +945,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458753E-37AB-3F45-AB3E-5A0862A1384B}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8:P13"/>
     </sheetView>
   </sheetViews>
@@ -2529,10 +2616,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDB9334-8F56-FD47-AA9B-D960EB678BC9}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="A12:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2540,12 +2627,13 @@
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -2573,8 +2661,11 @@
       <c r="I1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -2602,8 +2693,11 @@
       <c r="I2">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>90</v>
       </c>
@@ -2631,8 +2725,11 @@
       <c r="I3">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -2660,8 +2757,11 @@
       <c r="I4">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -2689,8 +2789,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -2718,8 +2821,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -2747,8 +2853,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -2776,8 +2885,11 @@
       <c r="I8">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -2805,8 +2917,11 @@
       <c r="I9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2834,8 +2949,11 @@
       <c r="I10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -2863,8 +2981,11 @@
       <c r="I11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -2892,8 +3013,11 @@
       <c r="I12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2921,8 +3045,11 @@
       <c r="I13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -2950,8 +3077,11 @@
       <c r="I14">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -2979,8 +3109,11 @@
       <c r="I15">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -3008,8 +3141,11 @@
       <c r="I16">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -3037,8 +3173,11 @@
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -3066,8 +3205,11 @@
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -3095,8 +3237,11 @@
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -3124,8 +3269,11 @@
       <c r="I20">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -3153,8 +3301,11 @@
       <c r="I21">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -3182,8 +3333,11 @@
       <c r="I22">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>75</v>
       </c>
@@ -3211,8 +3365,11 @@
       <c r="I23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -3240,8 +3397,11 @@
       <c r="I24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -3269,8 +3429,11 @@
       <c r="I25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -3298,8 +3461,11 @@
       <c r="I26">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>99</v>
       </c>
@@ -3327,8 +3493,11 @@
       <c r="I27">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -3356,8 +3525,11 @@
       <c r="I28">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -3385,8 +3557,11 @@
       <c r="I29">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>102</v>
       </c>
@@ -3414,8 +3589,11 @@
       <c r="I30">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -3443,8 +3621,874 @@
       <c r="I31">
         <v>1.75</v>
       </c>
-    </row>
-    <row r="35" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="J31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0.25</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0.25</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0.25</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>147</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>39</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37">
+        <v>2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0.5</v>
+      </c>
+      <c r="J37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0.75</v>
+      </c>
+      <c r="J38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>147</v>
+      </c>
+      <c r="F39">
+        <v>2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0.75</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>39</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0.75</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>39</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43">
+        <v>2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0.25</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0.25</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>156</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0.25</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0.5</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>161</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" t="s">
+        <v>39</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0.5</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>39</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0.5</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>147</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>39</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0.75</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>147</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0.75</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+      <c r="F52">
+        <v>2</v>
+      </c>
+      <c r="G52" t="s">
+        <v>39</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0.75</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>147</v>
+      </c>
+      <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53" t="s">
+        <v>39</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0.15</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>147</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0.15</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>170</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>147</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>39</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0.15</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>173</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>147</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>39</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0.05</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>147</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" t="s">
+        <v>39</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0.05</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>114</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" t="s">
+        <v>39</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0.05</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/OM_EM_Scenarios_v3.xlsx
+++ b/input/OM_EM_Scenarios_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Fleet_Selex_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44518D-8C96-D44F-B895-1E1AAB50E0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67512FA3-BFE6-D34C-9DDA-69C2526CB09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="31940" windowHeight="20080" activeTab="3" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
   </bookViews>
   <sheets>
     <sheet name="OM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="173">
   <si>
     <t>Fl_1_Ftype</t>
   </si>
@@ -489,6 +489,63 @@
     <t>Semi-Parametric</t>
   </si>
   <si>
+    <t>share_ages</t>
+  </si>
+  <si>
+    <t>Term_1Fl_L_SP_0.25</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_L_SP_0.25</t>
+  </si>
+  <si>
+    <t>Int_1Fl_L_SP_0.25</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.25</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.25</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.25</t>
+  </si>
+  <si>
+    <t>Term_1Fl_L_SP_0.5</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_L_SP_0.5</t>
+  </si>
+  <si>
+    <t>Int_1Fl_L_SP_0.5</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.5</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.5</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.5</t>
+  </si>
+  <si>
+    <t>Term_1Fl_L_SP_0.75</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_L_SP_0.75</t>
+  </si>
+  <si>
+    <t>Int_1Fl_L_SP_0.75</t>
+  </si>
+  <si>
+    <t>Term_1Fl_Gam_SP_0.75</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_0.75</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_0.75</t>
+  </si>
+  <si>
     <t>Term_1Fl_L_SP_1.0</t>
   </si>
   <si>
@@ -498,79 +555,13 @@
     <t>Int_1Fl_L_SP_1.0</t>
   </si>
   <si>
-    <t>Term_1Fl_L_SP_0.25</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_L_SP_0.25</t>
-  </si>
-  <si>
-    <t>Int_1Fl_L_SP_0.25</t>
-  </si>
-  <si>
-    <t>Term_1Fl_Gam_SP_0.25</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_Gam_SP_0.25</t>
-  </si>
-  <si>
-    <t>Int_1Fl_Gam_SP_0.25</t>
-  </si>
-  <si>
-    <t>Term_1Fl_L_SP_0.5</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_L_SP_0.5</t>
-  </si>
-  <si>
-    <t>Int_1Fl_L_SP_0.5</t>
-  </si>
-  <si>
-    <t>Term_1Fl_Gam_SP_0.5</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_Gam_SP_0.5</t>
-  </si>
-  <si>
-    <t>Int_1Fl_Gam_SP_0.5</t>
-  </si>
-  <si>
-    <t>Term_1Fl_L_SP_0.75</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_L_SP_0.75</t>
-  </si>
-  <si>
-    <t>Int_1Fl_L_SP_0.75</t>
-  </si>
-  <si>
-    <t>Term_1Fl_Gam_SP_0.75</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_Gam_SP_0.75</t>
-  </si>
-  <si>
-    <t>Int_1Fl_Gam_SP_0.75</t>
-  </si>
-  <si>
-    <t>share_ages</t>
-  </si>
-  <si>
-    <t>Int_1Fl_Gam_SP_0.15</t>
-  </si>
-  <si>
-    <t>Term_1Fl_Gam_SP_0.15</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_Gam_SP_0.15</t>
-  </si>
-  <si>
-    <t>Term_1Fl_Gam_SP_0.05</t>
-  </si>
-  <si>
-    <t>TrxE_1Fl_Gam_SP_0.05</t>
-  </si>
-  <si>
-    <t>Int_1Fl_Gam_SP_0.05</t>
+    <t>Term_1Fl_Gam_SP_1.0</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_Gam_SP_1.0</t>
+  </si>
+  <si>
+    <t>Int_1Fl_Gam_SP_1.0</t>
   </si>
 </sst>
 </file>
@@ -2616,10 +2607,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDB9334-8F56-FD47-AA9B-D960EB678BC9}">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="J55" sqref="A32:J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2662,7 +2653,7 @@
         <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3627,7 +3618,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -3659,7 +3650,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -3691,7 +3682,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -3723,7 +3714,7 @@
     </row>
     <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -3755,7 +3746,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -3787,7 +3778,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3819,7 +3810,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3851,7 +3842,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3883,7 +3874,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3915,7 +3906,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -3947,7 +3938,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -3979,7 +3970,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4011,7 +4002,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4043,7 +4034,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4075,7 +4066,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4107,7 +4098,7 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4139,7 +4130,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4171,7 +4162,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4203,7 +4194,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4235,7 +4226,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4267,7 +4258,7 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4299,7 +4290,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4323,7 +4314,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="J53">
         <v>3</v>
@@ -4331,7 +4322,7 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4355,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="J54">
         <v>3</v>
@@ -4363,7 +4354,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4387,105 +4378,9 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="J55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>173</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" t="s">
-        <v>147</v>
-      </c>
-      <c r="F56">
-        <v>2</v>
-      </c>
-      <c r="G56" t="s">
-        <v>39</v>
-      </c>
-      <c r="H56" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0.05</v>
-      </c>
-      <c r="J56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" t="s">
-        <v>147</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-      <c r="G57" t="s">
-        <v>39</v>
-      </c>
-      <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0.05</v>
-      </c>
-      <c r="J57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>175</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D58" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" t="s">
-        <v>147</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-      <c r="G58" t="s">
-        <v>39</v>
-      </c>
-      <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0.05</v>
-      </c>
-      <c r="J58">
         <v>3</v>
       </c>
     </row>
@@ -4500,7 +4395,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/input/OM_EM_Scenarios_v3.xlsx
+++ b/input/OM_EM_Scenarios_v3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Fleet_Selex_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67512FA3-BFE6-D34C-9DDA-69C2526CB09A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43F9406-D172-124D-9A88-130C206F33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="3" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
   </bookViews>
   <sheets>
     <sheet name="OM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="179">
   <si>
     <t>Fl_1_Ftype</t>
   </si>
@@ -562,6 +562,24 @@
   </si>
   <si>
     <t>Int_1Fl_Gam_SP_1.0</t>
+  </si>
+  <si>
+    <t>Fast_LL_High_Rev</t>
+  </si>
+  <si>
+    <t>Fast_GL_O_High_Rev</t>
+  </si>
+  <si>
+    <t>Slow_LL_High_Rev</t>
+  </si>
+  <si>
+    <t>Slow_GL_O_High_Rev</t>
+  </si>
+  <si>
+    <t>Fast_GL_Y_High_Rev</t>
+  </si>
+  <si>
+    <t>Slow_GL_Y_High_Rev</t>
   </si>
 </sst>
 </file>
@@ -936,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458753E-37AB-3F45-AB3E-5A0862A1384B}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8:P13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2046,30 +2064,513 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="20" x14ac:dyDescent="0.2">
-      <c r="J14" s="2"/>
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14">
+        <v>51</v>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>0.108</v>
+      </c>
+      <c r="H14">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <v>100</v>
+      </c>
+      <c r="N14">
+        <v>0.2</v>
+      </c>
+      <c r="O14">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>8.5</v>
+      </c>
+      <c r="T14">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U14">
+        <v>10.5</v>
+      </c>
+      <c r="V14">
+        <v>1.25</v>
+      </c>
+      <c r="W14">
+        <v>3.5</v>
+      </c>
+      <c r="X14">
+        <v>0.65</v>
+      </c>
+      <c r="Y14">
+        <v>5.5</v>
+      </c>
+      <c r="Z14">
+        <v>0.75</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="20" x14ac:dyDescent="0.2">
-      <c r="J15" s="2"/>
+      <c r="A15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>0.108</v>
+      </c>
+      <c r="H15">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>0.2</v>
+      </c>
+      <c r="O15">
+        <v>50</v>
+      </c>
+      <c r="P15">
+        <v>50</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="S15">
+        <v>15.5</v>
+      </c>
+      <c r="T15">
+        <v>8</v>
+      </c>
+      <c r="U15">
+        <v>19</v>
+      </c>
+      <c r="V15">
+        <v>8</v>
+      </c>
+      <c r="W15">
+        <v>3.5</v>
+      </c>
+      <c r="X15">
+        <v>0.65</v>
+      </c>
+      <c r="Y15">
+        <v>5.5</v>
+      </c>
+      <c r="Z15">
+        <v>0.75</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="20" x14ac:dyDescent="0.2">
-      <c r="J16" s="2"/>
-    </row>
-    <row r="17" spans="10:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="10:10" ht="20" x14ac:dyDescent="0.2">
-      <c r="J18" s="2"/>
-    </row>
-    <row r="24" spans="10:10" ht="20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>71</v>
+      </c>
+      <c r="C16">
+        <v>51</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16">
+        <v>0.108</v>
+      </c>
+      <c r="H16">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>100</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>0.2</v>
+      </c>
+      <c r="O16">
+        <v>50</v>
+      </c>
+      <c r="P16">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S16">
+        <v>8.5</v>
+      </c>
+      <c r="T16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="U16">
+        <v>10.5</v>
+      </c>
+      <c r="V16">
+        <v>1.25</v>
+      </c>
+      <c r="W16">
+        <v>3.5</v>
+      </c>
+      <c r="X16">
+        <v>0.65</v>
+      </c>
+      <c r="Y16">
+        <v>5.5</v>
+      </c>
+      <c r="Z16">
+        <v>0.75</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17">
+        <v>0.108</v>
+      </c>
+      <c r="H17">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>100</v>
+      </c>
+      <c r="M17">
+        <v>100</v>
+      </c>
+      <c r="N17">
+        <v>0.2</v>
+      </c>
+      <c r="O17">
+        <v>50</v>
+      </c>
+      <c r="P17">
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>11</v>
+      </c>
+      <c r="R17" t="s">
+        <v>10</v>
+      </c>
+      <c r="S17">
+        <v>15.5</v>
+      </c>
+      <c r="T17">
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <v>19</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+      <c r="W17">
+        <v>3.5</v>
+      </c>
+      <c r="X17">
+        <v>0.65</v>
+      </c>
+      <c r="Y17">
+        <v>5.5</v>
+      </c>
+      <c r="Z17">
+        <v>0.75</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18">
+        <v>0.108</v>
+      </c>
+      <c r="H18">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>100</v>
+      </c>
+      <c r="M18">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>0.2</v>
+      </c>
+      <c r="O18">
+        <v>50</v>
+      </c>
+      <c r="P18">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" t="s">
+        <v>10</v>
+      </c>
+      <c r="S18">
+        <v>5</v>
+      </c>
+      <c r="T18">
+        <v>5</v>
+      </c>
+      <c r="U18">
+        <v>7</v>
+      </c>
+      <c r="V18">
+        <v>6.5</v>
+      </c>
+      <c r="W18">
+        <v>3.5</v>
+      </c>
+      <c r="X18">
+        <v>0.65</v>
+      </c>
+      <c r="Y18">
+        <v>5.5</v>
+      </c>
+      <c r="Z18">
+        <v>0.75</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19">
+        <v>71</v>
+      </c>
+      <c r="C19">
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19">
+        <v>0.108</v>
+      </c>
+      <c r="H19">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>0.2</v>
+      </c>
+      <c r="O19">
+        <v>50</v>
+      </c>
+      <c r="P19">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" t="s">
+        <v>10</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>5</v>
+      </c>
+      <c r="U19">
+        <v>7</v>
+      </c>
+      <c r="V19">
+        <v>6.5</v>
+      </c>
+      <c r="W19">
+        <v>3.5</v>
+      </c>
+      <c r="X19">
+        <v>0.65</v>
+      </c>
+      <c r="Y19">
+        <v>5.5</v>
+      </c>
+      <c r="Z19">
+        <v>0.75</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="20" x14ac:dyDescent="0.2">
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="10:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="20" x14ac:dyDescent="0.2">
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="10:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="20" x14ac:dyDescent="0.2">
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="10:10" ht="20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="20" x14ac:dyDescent="0.2">
       <c r="J27" s="2"/>
     </row>
   </sheetData>
@@ -2609,7 +3110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDB9334-8F56-FD47-AA9B-D960EB678BC9}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="J55" sqref="A32:J55"/>
     </sheetView>
   </sheetViews>

--- a/input/OM_EM_Scenarios_v3.xlsx
+++ b/input/OM_EM_Scenarios_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Fleet_Selex_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43F9406-D172-124D-9A88-130C206F33E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187491CF-4C88-E843-86FC-D3F03E58D6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
   </bookViews>
   <sheets>
     <sheet name="OM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="193">
   <si>
     <t>Fl_1_Ftype</t>
   </si>
@@ -580,6 +580,48 @@
   </si>
   <si>
     <t>Slow_GL_Y_High_Rev</t>
+  </si>
+  <si>
+    <t>Term_1Fl_GamL_Blk</t>
+  </si>
+  <si>
+    <t>gamma,logistic</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_GamL_Blk</t>
+  </si>
+  <si>
+    <t>Int_1Fl_GamL_Blk</t>
+  </si>
+  <si>
+    <t>Term_1Fl_GamGam_Blk</t>
+  </si>
+  <si>
+    <t>TrxE_1Fl_GamGam_Blk</t>
+  </si>
+  <si>
+    <t>Int_1Fl_GamGam_Blk</t>
+  </si>
+  <si>
+    <t>gamma,gamma</t>
+  </si>
+  <si>
+    <t>Term_2Fl_GamGam</t>
+  </si>
+  <si>
+    <t>Term_2Fl_GamL</t>
+  </si>
+  <si>
+    <t>TrxE_2Fl_GamGam</t>
+  </si>
+  <si>
+    <t>TrxE_2Fl_GamLL</t>
+  </si>
+  <si>
+    <t>Int_2Fl_GamGam</t>
+  </si>
+  <si>
+    <t>Int_2Fl_GamL</t>
   </si>
 </sst>
 </file>
@@ -954,7 +996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458753E-37AB-3F45-AB3E-5A0862A1384B}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -2581,10 +2623,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143D2C7-3A08-064F-9170-C1ED86770A52}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2735,6 +2777,126 @@
         <v>114</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2745,7 +2907,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2760,332 +2922,470 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="b">
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" t="b">
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="A4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" t="b">
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" t="b">
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" t="b">
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="b">
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="b">
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="b">
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="b">
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" t="b">
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" t="b">
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F31" s="1"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
@@ -3110,7 +3410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DDB9334-8F56-FD47-AA9B-D960EB678BC9}">
   <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J55" sqref="A32:J55"/>
     </sheetView>
   </sheetViews>

--- a/input/OM_EM_Scenarios_v3.xlsx
+++ b/input/OM_EM_Scenarios_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/UAF Thesis/Fleet_Selex_Sim/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187491CF-4C88-E843-86FC-D3F03E58D6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6D84D1-3560-DB4D-BFB3-25BE39554502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
+    <workbookView xWindow="2400" yWindow="880" windowWidth="30240" windowHeight="18880" xr2:uid="{7DE04263-F460-4046-B781-542FFAD9869D}"/>
   </bookViews>
   <sheets>
     <sheet name="OM" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="197">
   <si>
     <t>Fl_1_Ftype</t>
   </si>
@@ -622,6 +622,18 @@
   </si>
   <si>
     <t>Int_2Fl_GamL</t>
+  </si>
+  <si>
+    <t>Fast_LG_O_High_Ext</t>
+  </si>
+  <si>
+    <t>Fast_LG_Y_High_Ext</t>
+  </si>
+  <si>
+    <t>Fast_GL_O_High_Rev_Ext</t>
+  </si>
+  <si>
+    <t>Fast_GL_Y_High_Rev_Ext</t>
   </si>
 </sst>
 </file>
@@ -996,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3458753E-37AB-3F45-AB3E-5A0862A1384B}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2603,6 +2615,338 @@
         <v>116</v>
       </c>
     </row>
+    <row r="20" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H20">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K20">
+        <v>100</v>
+      </c>
+      <c r="L20">
+        <v>100</v>
+      </c>
+      <c r="M20">
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <v>0.2</v>
+      </c>
+      <c r="O20">
+        <v>50</v>
+      </c>
+      <c r="P20">
+        <v>50</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>10</v>
+      </c>
+      <c r="R20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20">
+        <v>3.5</v>
+      </c>
+      <c r="T20">
+        <v>0.65</v>
+      </c>
+      <c r="U20">
+        <v>5.5</v>
+      </c>
+      <c r="V20">
+        <v>0.75</v>
+      </c>
+      <c r="W20">
+        <v>15.5</v>
+      </c>
+      <c r="X20">
+        <v>8</v>
+      </c>
+      <c r="Y20">
+        <v>19</v>
+      </c>
+      <c r="Z20">
+        <v>8</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21">
+        <v>100</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H21">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K21">
+        <v>100</v>
+      </c>
+      <c r="L21">
+        <v>100</v>
+      </c>
+      <c r="M21">
+        <v>100</v>
+      </c>
+      <c r="N21">
+        <v>0.2</v>
+      </c>
+      <c r="O21">
+        <v>50</v>
+      </c>
+      <c r="P21">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R21" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21">
+        <v>3.5</v>
+      </c>
+      <c r="T21">
+        <v>0.65</v>
+      </c>
+      <c r="U21">
+        <v>5.5</v>
+      </c>
+      <c r="V21">
+        <v>0.75</v>
+      </c>
+      <c r="W21">
+        <v>5</v>
+      </c>
+      <c r="X21">
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
+        <v>6.5</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B22">
+        <v>100</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H22">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+      <c r="M22">
+        <v>100</v>
+      </c>
+      <c r="N22">
+        <v>0.2</v>
+      </c>
+      <c r="O22">
+        <v>50</v>
+      </c>
+      <c r="P22">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>11</v>
+      </c>
+      <c r="R22" t="s">
+        <v>10</v>
+      </c>
+      <c r="S22">
+        <v>15.5</v>
+      </c>
+      <c r="T22">
+        <v>8</v>
+      </c>
+      <c r="U22">
+        <v>19</v>
+      </c>
+      <c r="V22">
+        <v>8</v>
+      </c>
+      <c r="W22">
+        <v>3.5</v>
+      </c>
+      <c r="X22">
+        <v>0.65</v>
+      </c>
+      <c r="Y22">
+        <v>5.5</v>
+      </c>
+      <c r="Z22">
+        <v>0.75</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="C23">
+        <v>30</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="H23">
+        <v>5.6842109999999998E-3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.76670000000000005</v>
+      </c>
+      <c r="K23">
+        <v>100</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23">
+        <v>100</v>
+      </c>
+      <c r="N23">
+        <v>0.2</v>
+      </c>
+      <c r="O23">
+        <v>50</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R23" t="s">
+        <v>10</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>7</v>
+      </c>
+      <c r="V23">
+        <v>6.5</v>
+      </c>
+      <c r="W23">
+        <v>3.5</v>
+      </c>
+      <c r="X23">
+        <v>0.65</v>
+      </c>
+      <c r="Y23">
+        <v>5.5</v>
+      </c>
+      <c r="Z23">
+        <v>0.75</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="24" spans="1:27" ht="20" x14ac:dyDescent="0.2">
       <c r="J24" s="2"/>
     </row>
@@ -2625,7 +2969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5143D2C7-3A08-064F-9170-C1ED86770A52}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
